--- a/data/trans_dic/P33b_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R2-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 8,65</t>
+          <t>1,56; 8,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 12,13</t>
+          <t>3,6; 11,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 8,73</t>
+          <t>3,36; 8,86</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 9,02</t>
+          <t>3,73; 9,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,34; 11,91</t>
+          <t>6,04; 11,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,58; 9,57</t>
+          <t>5,63; 9,66</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,39; 14,35</t>
+          <t>8,74; 14,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,25; 17,42</t>
+          <t>12,29; 17,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,27; 15,3</t>
+          <t>11,31; 15,15</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,25; 16,54</t>
+          <t>10,39; 16,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,37; 24,6</t>
+          <t>19,47; 24,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,55; 19,92</t>
+          <t>15,38; 20,04</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,48; 21,37</t>
+          <t>15,41; 21,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29,01; 35,1</t>
+          <t>29,28; 35,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,23; 27,34</t>
+          <t>23,21; 27,33</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,96; 27,52</t>
+          <t>22,08; 27,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,26; 35,4</t>
+          <t>22,2; 35,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,6; 31,11</t>
+          <t>21,75; 31,17</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,08; 15,55</t>
+          <t>13,0; 15,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,43; 23,09</t>
+          <t>19,44; 22,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,16; 19,14</t>
+          <t>17,11; 19,23</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 8,97</t>
+          <t>1,59; 8,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 11,97</t>
+          <t>3,54; 12,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,36; 8,86</t>
+          <t>3,15; 8,73</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,73; 9,35</t>
+          <t>3,7; 9,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,04; 11,87</t>
+          <t>6,34; 11,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,66</t>
+          <t>5,58; 9,57</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,74; 14,33</t>
+          <t>8,39; 14,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,29; 17,32</t>
+          <t>12,25; 17,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,31; 15,15</t>
+          <t>11,27; 15,3</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,39; 16,9</t>
+          <t>10,25; 16,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,47; 24,66</t>
+          <t>19,37; 24,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,38; 20,04</t>
+          <t>15,55; 19,92</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,41; 21,36</t>
+          <t>15,48; 21,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29,28; 35,16</t>
+          <t>29,01; 35,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,21; 27,33</t>
+          <t>23,23; 27,34</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,08; 27,74</t>
+          <t>21,96; 27,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,2; 35,83</t>
+          <t>22,26; 35,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>21,75; 31,17</t>
+          <t>22,6; 31,11</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,0; 15,58</t>
+          <t>13,08; 15,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,44; 22,99</t>
+          <t>19,43; 23,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,11; 19,23</t>
+          <t>17,16; 19,14</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R2-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,14%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,59; 8,65</t>
+          <t>1,49; 8,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 12,13</t>
+          <t>3,53; 12,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,15; 8,73</t>
+          <t>2,94; 8,32</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>7,03%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 9,02</t>
+          <t>3,83; 9,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,34; 11,91</t>
+          <t>4,71; 10,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,58; 9,57</t>
+          <t>4,99; 9,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>14,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>12,96%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,39; 14,35</t>
+          <t>8,41; 14,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,25; 17,42</t>
+          <t>12,15; 17,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,27; 15,3</t>
+          <t>11,14; 15,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,98%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,86%</t>
+          <t>15,31%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,25; 16,54</t>
+          <t>4,32; 15,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,37; 24,6</t>
+          <t>17,8; 23,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,55; 19,92</t>
+          <t>8,63; 18,64</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>17,98%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>32,07%</t>
+          <t>31,79%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>25,12%</t>
+          <t>24,79%</t>
         </is>
       </c>
     </row>
@@ -779,24 +779,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,48; 21,37</t>
+          <t>15,29; 21,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>29,01; 35,1</t>
+          <t>28,78; 34,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,23; 27,34</t>
+          <t>22,95; 26,97</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>30,96%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>20,79%</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,96; 27,52</t>
+          <t>17,48; 24,08</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,26; 35,4</t>
+          <t>7,93; 32,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,6; 31,11</t>
+          <t>10,1; 26,94</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>28,92%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>36,56%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>33,51%</t>
         </is>
       </c>
     </row>
@@ -879,29 +879,79 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,08; 15,55</t>
+          <t>24,88; 33,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,43; 23,09</t>
+          <t>33,55; 40,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,16; 19,14</t>
+          <t>30,92; 36,27</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13,12%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>20,44%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>16,88%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>9,97; 14,64</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>16,67; 22,36</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>14,77; 18,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -909,6 +959,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P33b_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 8,33</t>
+          <t>1,41; 8,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,53; 12,11</t>
+          <t>3,42; 11,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,94; 8,32</t>
+          <t>3,01; 7,88</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,83; 9,42</t>
+          <t>3,85; 9,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,71; 10,59</t>
+          <t>4,77; 10,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,99; 9,27</t>
+          <t>4,99; 9,42</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,41; 14,41</t>
+          <t>8,47; 14,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,15; 17,33</t>
+          <t>12,38; 17,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,14; 15,18</t>
+          <t>11,15; 15,05</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,32; 15,55</t>
+          <t>4,52; 15,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,8; 23,97</t>
+          <t>17,82; 23,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,63; 18,64</t>
+          <t>9,01; 18,81</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,29; 21,13</t>
+          <t>14,96; 21,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28,78; 34,75</t>
+          <t>28,64; 34,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,95; 26,97</t>
+          <t>22,53; 26,99</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,48; 24,08</t>
+          <t>17,38; 24,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,93; 32,39</t>
+          <t>8,37; 32,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,1; 26,94</t>
+          <t>11,64; 26,98</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>24,88; 33,26</t>
+          <t>24,76; 33,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>33,55; 40,3</t>
+          <t>33,46; 40,03</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,92; 36,27</t>
+          <t>30,83; 35,95</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>9,97; 14,64</t>
+          <t>10,15; 14,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,67; 22,36</t>
+          <t>16,05; 22,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,77; 18,2</t>
+          <t>14,69; 18,16</t>
         </is>
       </c>
     </row>
@@ -964,4 +965,684 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>14972</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>21717</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>36689</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5622; 32022</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>10708; 36679</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>21462; 56167</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>26551</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>39195</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>65746</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>16300; 41586</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>24422; 54830</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>46692; 88107</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>59921</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>79895</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>139816</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>45431; 76401</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>67133; 94777</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>120266; 162368</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>93733</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>151207</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>244941</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>40160; 140111</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>126973; 169930</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>144129; 301000</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>100735</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>173266</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>274001</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>83801; 119070</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>156095; 190403</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>249030; 298354</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>76105</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>126962</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>203066</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>63984; 88423</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>50924; 197839</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>113635; 263489</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>81780</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>155682</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>237462</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>70002; 93478</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>142495; 170441</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>218440; 254754</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1309</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1861</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>453796</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>747925</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1201720</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>351069; 505106</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>587398; 813489</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1045481; 1292841</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>